--- a/Dossier/Product backlog.xlsx
+++ b/Dossier/Product backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="17" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Story" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -136,21 +136,12 @@
     <t>TASK</t>
   </si>
   <si>
-    <t>Faire l'activé (formulaire)</t>
-  </si>
-  <si>
     <t>Code de validation (Testing)</t>
   </si>
   <si>
     <t>TASK POINTS</t>
   </si>
   <si>
-    <t>Récupérer les arrêts selon la recherche</t>
-  </si>
-  <si>
-    <t>Récupérer les arrêts selon la recherche vocale</t>
-  </si>
-  <si>
     <t>Faire la base de donnée (Créer la table)</t>
   </si>
   <si>
@@ -176,6 +167,12 @@
   </si>
   <si>
     <t>À faire</t>
+  </si>
+  <si>
+    <t>Faire l'activité (formulaire)</t>
+  </si>
+  <si>
+    <t>Faire la base de données (créer la table)</t>
   </si>
 </sst>
 </file>
@@ -731,8 +728,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1238,7 +1235,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1266,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -1283,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>8</v>
@@ -1301,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -1345,7 +1342,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1373,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -1390,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
@@ -1408,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -1452,7 +1449,7 @@
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1480,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -1497,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
@@ -1515,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D5" s="13">
         <v>3</v>
@@ -1533,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9">
         <v>2</v>
@@ -1577,7 +1574,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,7 +1604,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -1621,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
@@ -1639,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -1683,7 +1680,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1711,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -1728,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
@@ -1737,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1746,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -1755,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1790,7 +1787,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1817,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -1834,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>13</v>
@@ -1852,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>5</v>
@@ -1896,7 +1893,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,7 +1923,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -1940,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>5</v>
@@ -1958,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -2002,7 +1999,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,7 +2029,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -2046,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>13</v>
@@ -2064,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>3</v>
@@ -2108,7 +2105,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,7 +2135,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -2152,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>5</v>
@@ -2170,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>0.5</v>
@@ -2214,7 +2211,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,7 +2241,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -2258,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="13">
         <v>0.5</v>
@@ -2276,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>0.5</v>
@@ -2366,19 +2363,19 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E5" s="23"/>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E6" s="24"/>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E7" s="25"/>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2423,7 +2420,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -2437,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="13">
         <v>0.5</v>
@@ -2455,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>0.5</v>
@@ -2499,7 +2496,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,7 +2526,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -2543,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>0.5</v>
@@ -2561,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>0.5</v>
@@ -2605,7 +2602,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,7 +2632,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -2649,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -2667,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -2711,7 +2708,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,7 +2738,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -2755,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -2773,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -2816,8 +2813,8 @@
   <sheetPr codeName="Feuil24"/>
   <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,7 +2844,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -2861,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -2879,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -2933,22 +2930,22 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +2959,7 @@
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,7 +2989,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -3006,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
@@ -3024,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="13">
         <v>3</v>
@@ -3042,7 +3039,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9">
         <v>2</v>
@@ -3087,7 +3084,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3117,7 +3114,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -3131,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D4" s="13">
         <v>1</v>
@@ -3149,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
@@ -3193,7 +3190,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,7 +3221,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -3238,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D4" s="13">
         <v>3</v>
@@ -3256,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -3300,7 +3297,7 @@
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3331,7 +3328,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -3345,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
@@ -3363,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D5" s="13">
         <v>3</v>
@@ -3381,7 +3378,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9">
         <v>2</v>
@@ -3425,7 +3422,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,7 +3454,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -3471,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11">
         <v>8</v>
@@ -3489,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -3533,7 +3530,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,7 +3560,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -3577,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>13</v>
@@ -3595,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <v>3</v>
